--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Hras-Insr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Hras-Insr.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.64120523876466</v>
+        <v>6.980814333333332</v>
       </c>
       <c r="H2">
-        <v>6.64120523876466</v>
+        <v>20.942443</v>
       </c>
       <c r="I2">
-        <v>0.2577352165731273</v>
+        <v>0.2573350203399358</v>
       </c>
       <c r="J2">
-        <v>0.2577352165731273</v>
+        <v>0.2573350203399358</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.9155439384167</v>
+        <v>13.61877133333333</v>
       </c>
       <c r="N2">
-        <v>12.9155439384167</v>
+        <v>40.856314</v>
       </c>
       <c r="O2">
-        <v>0.3217840156570073</v>
+        <v>0.3264056993691278</v>
       </c>
       <c r="P2">
-        <v>0.3217840156570073</v>
+        <v>0.3264056993691277</v>
       </c>
       <c r="Q2">
-        <v>85.77477806530814</v>
+        <v>95.07011412612243</v>
       </c>
       <c r="R2">
-        <v>85.77477806530814</v>
+        <v>855.6310271351019</v>
       </c>
       <c r="S2">
-        <v>0.08293507296512935</v>
+        <v>0.08399561728622545</v>
       </c>
       <c r="T2">
-        <v>0.08293507296512935</v>
+        <v>0.08399561728622544</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.64120523876466</v>
+        <v>6.980814333333332</v>
       </c>
       <c r="H3">
-        <v>6.64120523876466</v>
+        <v>20.942443</v>
       </c>
       <c r="I3">
-        <v>0.2577352165731273</v>
+        <v>0.2573350203399358</v>
       </c>
       <c r="J3">
-        <v>0.2577352165731273</v>
+        <v>0.2573350203399358</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.9119714371485</v>
+        <v>10.92748633333333</v>
       </c>
       <c r="N3">
-        <v>10.9119714371485</v>
+        <v>32.782459</v>
       </c>
       <c r="O3">
-        <v>0.2718660557017667</v>
+        <v>0.2619027613928843</v>
       </c>
       <c r="P3">
-        <v>0.2718660557017667</v>
+        <v>0.2619027613928842</v>
       </c>
       <c r="Q3">
-        <v>72.46864187364095</v>
+        <v>76.28275322303743</v>
       </c>
       <c r="R3">
-        <v>72.46864187364095</v>
+        <v>686.544779007337</v>
       </c>
       <c r="S3">
-        <v>0.07006945674517671</v>
+        <v>0.06739675243012322</v>
       </c>
       <c r="T3">
-        <v>0.07006945674517671</v>
+        <v>0.06739675243012321</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.64120523876466</v>
+        <v>6.980814333333332</v>
       </c>
       <c r="H4">
-        <v>6.64120523876466</v>
+        <v>20.942443</v>
       </c>
       <c r="I4">
-        <v>0.2577352165731273</v>
+        <v>0.2573350203399358</v>
       </c>
       <c r="J4">
-        <v>0.2577352165731273</v>
+        <v>0.2573350203399358</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.11709213649094</v>
+        <v>7.492675333333334</v>
       </c>
       <c r="N4">
-        <v>7.11709213649094</v>
+        <v>22.478026</v>
       </c>
       <c r="O4">
-        <v>0.1773186246278771</v>
+        <v>0.1795794842620271</v>
       </c>
       <c r="P4">
-        <v>0.1773186246278771</v>
+        <v>0.1795794842620271</v>
       </c>
       <c r="Q4">
-        <v>47.2660695816344</v>
+        <v>52.30497536194644</v>
       </c>
       <c r="R4">
-        <v>47.2660695816344</v>
+        <v>470.7447782575179</v>
       </c>
       <c r="S4">
-        <v>0.04570125412091496</v>
+        <v>0.04621209023520392</v>
       </c>
       <c r="T4">
-        <v>0.04570125412091496</v>
+        <v>0.04621209023520391</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.64120523876466</v>
+        <v>6.980814333333332</v>
       </c>
       <c r="H5">
-        <v>6.64120523876466</v>
+        <v>20.942443</v>
       </c>
       <c r="I5">
-        <v>0.2577352165731273</v>
+        <v>0.2573350203399358</v>
       </c>
       <c r="J5">
-        <v>0.2577352165731273</v>
+        <v>0.2573350203399358</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.192699843146681</v>
+        <v>9.684515333333332</v>
       </c>
       <c r="N5">
-        <v>9.192699843146681</v>
+        <v>29.053546</v>
       </c>
       <c r="O5">
-        <v>0.2290313040133489</v>
+        <v>0.2321120549759609</v>
       </c>
       <c r="P5">
-        <v>0.2290313040133489</v>
+        <v>0.2321120549759609</v>
       </c>
       <c r="Q5">
-        <v>61.0506063566968</v>
+        <v>67.60580345031975</v>
       </c>
       <c r="R5">
-        <v>61.0506063566968</v>
+        <v>608.4522310528779</v>
       </c>
       <c r="S5">
-        <v>0.05902943274190622</v>
+        <v>0.0597305603883832</v>
       </c>
       <c r="T5">
-        <v>0.05902943274190622</v>
+        <v>0.05973056038838319</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.32713859321921</v>
+        <v>6.375361666666667</v>
       </c>
       <c r="H6">
-        <v>6.32713859321921</v>
+        <v>19.126085</v>
       </c>
       <c r="I6">
-        <v>0.2455467610145532</v>
+        <v>0.2350161092714131</v>
       </c>
       <c r="J6">
-        <v>0.2455467610145532</v>
+        <v>0.2350161092714131</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.9155439384167</v>
+        <v>13.61877133333333</v>
       </c>
       <c r="N6">
-        <v>12.9155439384167</v>
+        <v>40.856314</v>
       </c>
       <c r="O6">
-        <v>0.3217840156570073</v>
+        <v>0.3264056993691278</v>
       </c>
       <c r="P6">
-        <v>0.3217840156570073</v>
+        <v>0.3264056993691277</v>
       </c>
       <c r="Q6">
-        <v>81.71843650517474</v>
+        <v>86.82459270563223</v>
       </c>
       <c r="R6">
-        <v>81.71843650517474</v>
+        <v>781.4213343506901</v>
       </c>
       <c r="S6">
-        <v>0.07901302279083444</v>
+        <v>0.07671059750974696</v>
       </c>
       <c r="T6">
-        <v>0.07901302279083444</v>
+        <v>0.07671059750974694</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.32713859321921</v>
+        <v>6.375361666666667</v>
       </c>
       <c r="H7">
-        <v>6.32713859321921</v>
+        <v>19.126085</v>
       </c>
       <c r="I7">
-        <v>0.2455467610145532</v>
+        <v>0.2350161092714131</v>
       </c>
       <c r="J7">
-        <v>0.2455467610145532</v>
+        <v>0.2350161092714131</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.9119714371485</v>
+        <v>10.92748633333333</v>
       </c>
       <c r="N7">
-        <v>10.9119714371485</v>
+        <v>32.782459</v>
       </c>
       <c r="O7">
-        <v>0.2718660557017667</v>
+        <v>0.2619027613928843</v>
       </c>
       <c r="P7">
-        <v>0.2718660557017667</v>
+        <v>0.2619027613928842</v>
       </c>
       <c r="Q7">
-        <v>69.04155560808796</v>
+        <v>69.66667748255723</v>
       </c>
       <c r="R7">
-        <v>69.04155560808796</v>
+        <v>627.000097343015</v>
       </c>
       <c r="S7">
-        <v>0.06675582940737093</v>
+        <v>0.06155136798999493</v>
       </c>
       <c r="T7">
-        <v>0.06675582940737093</v>
+        <v>0.06155136798999492</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.32713859321921</v>
+        <v>6.375361666666667</v>
       </c>
       <c r="H8">
-        <v>6.32713859321921</v>
+        <v>19.126085</v>
       </c>
       <c r="I8">
-        <v>0.2455467610145532</v>
+        <v>0.2350161092714131</v>
       </c>
       <c r="J8">
-        <v>0.2455467610145532</v>
+        <v>0.2350161092714131</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.11709213649094</v>
+        <v>7.492675333333334</v>
       </c>
       <c r="N8">
-        <v>7.11709213649094</v>
+        <v>22.478026</v>
       </c>
       <c r="O8">
-        <v>0.1773186246278771</v>
+        <v>0.1795794842620271</v>
       </c>
       <c r="P8">
-        <v>0.1773186246278771</v>
+        <v>0.1795794842620271</v>
       </c>
       <c r="Q8">
-        <v>45.03082832828879</v>
+        <v>47.76851510091223</v>
       </c>
       <c r="R8">
-        <v>45.03082832828879</v>
+        <v>429.91663590821</v>
       </c>
       <c r="S8">
-        <v>0.04354001394493062</v>
+        <v>0.04220407169622858</v>
       </c>
       <c r="T8">
-        <v>0.04354001394493062</v>
+        <v>0.04220407169622856</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.32713859321921</v>
+        <v>6.375361666666667</v>
       </c>
       <c r="H9">
-        <v>6.32713859321921</v>
+        <v>19.126085</v>
       </c>
       <c r="I9">
-        <v>0.2455467610145532</v>
+        <v>0.2350161092714131</v>
       </c>
       <c r="J9">
-        <v>0.2455467610145532</v>
+        <v>0.2350161092714131</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.192699843146681</v>
+        <v>9.684515333333332</v>
       </c>
       <c r="N9">
-        <v>9.192699843146681</v>
+        <v>29.053546</v>
       </c>
       <c r="O9">
-        <v>0.2290313040133489</v>
+        <v>0.2321120549759609</v>
       </c>
       <c r="P9">
-        <v>0.2290313040133489</v>
+        <v>0.2321120549759609</v>
       </c>
       <c r="Q9">
-        <v>58.16348595345355</v>
+        <v>61.74228781637888</v>
       </c>
       <c r="R9">
-        <v>58.16348595345355</v>
+        <v>555.68059034741</v>
       </c>
       <c r="S9">
-        <v>0.05623789487141727</v>
+        <v>0.05455007207544269</v>
       </c>
       <c r="T9">
-        <v>0.05623789487141727</v>
+        <v>0.05455007207544268</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.14316724269893</v>
+        <v>5.973131</v>
       </c>
       <c r="H10">
-        <v>5.14316724269893</v>
+        <v>17.919393</v>
       </c>
       <c r="I10">
-        <v>0.1995986083115532</v>
+        <v>0.2201886075150976</v>
       </c>
       <c r="J10">
-        <v>0.1995986083115532</v>
+        <v>0.2201886075150976</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.9155439384167</v>
+        <v>13.61877133333333</v>
       </c>
       <c r="N10">
-        <v>12.9155439384167</v>
+        <v>40.856314</v>
       </c>
       <c r="O10">
-        <v>0.3217840156570073</v>
+        <v>0.3264056993691278</v>
       </c>
       <c r="P10">
-        <v>0.3217840156570073</v>
+        <v>0.3264056993691277</v>
       </c>
       <c r="Q10">
-        <v>66.42680250570351</v>
+        <v>81.34670523304467</v>
       </c>
       <c r="R10">
-        <v>66.42680250570351</v>
+        <v>732.120347097402</v>
       </c>
       <c r="S10">
-        <v>0.06422764170204172</v>
+        <v>0.07187081642907982</v>
       </c>
       <c r="T10">
-        <v>0.06422764170204172</v>
+        <v>0.0718708164290798</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.14316724269893</v>
+        <v>5.973131</v>
       </c>
       <c r="H11">
-        <v>5.14316724269893</v>
+        <v>17.919393</v>
       </c>
       <c r="I11">
-        <v>0.1995986083115532</v>
+        <v>0.2201886075150976</v>
       </c>
       <c r="J11">
-        <v>0.1995986083115532</v>
+        <v>0.2201886075150976</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.9119714371485</v>
+        <v>10.92748633333333</v>
       </c>
       <c r="N11">
-        <v>10.9119714371485</v>
+        <v>32.782459</v>
       </c>
       <c r="O11">
-        <v>0.2718660557017667</v>
+        <v>0.2619027613928843</v>
       </c>
       <c r="P11">
-        <v>0.2718660557017667</v>
+        <v>0.2619027613928842</v>
       </c>
       <c r="Q11">
-        <v>56.12209404880853</v>
+        <v>65.27130736970966</v>
       </c>
       <c r="R11">
-        <v>56.12209404880853</v>
+        <v>587.4417663273871</v>
       </c>
       <c r="S11">
-        <v>0.05426408636522385</v>
+        <v>0.05766800433545805</v>
       </c>
       <c r="T11">
-        <v>0.05426408636522385</v>
+        <v>0.05766800433545804</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.14316724269893</v>
+        <v>5.973131</v>
       </c>
       <c r="H12">
-        <v>5.14316724269893</v>
+        <v>17.919393</v>
       </c>
       <c r="I12">
-        <v>0.1995986083115532</v>
+        <v>0.2201886075150976</v>
       </c>
       <c r="J12">
-        <v>0.1995986083115532</v>
+        <v>0.2201886075150976</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.11709213649094</v>
+        <v>7.492675333333334</v>
       </c>
       <c r="N12">
-        <v>7.11709213649094</v>
+        <v>22.478026</v>
       </c>
       <c r="O12">
-        <v>0.1773186246278771</v>
+        <v>0.1795794842620271</v>
       </c>
       <c r="P12">
-        <v>0.1773186246278771</v>
+        <v>0.1795794842620271</v>
       </c>
       <c r="Q12">
-        <v>36.60439513967034</v>
+        <v>44.75473130646866</v>
       </c>
       <c r="R12">
-        <v>36.60439513967034</v>
+        <v>402.792581758218</v>
       </c>
       <c r="S12">
-        <v>0.03539255070344298</v>
+        <v>0.03954135657793514</v>
       </c>
       <c r="T12">
-        <v>0.03539255070344298</v>
+        <v>0.03954135657793512</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.14316724269893</v>
+        <v>5.973131</v>
       </c>
       <c r="H13">
-        <v>5.14316724269893</v>
+        <v>17.919393</v>
       </c>
       <c r="I13">
-        <v>0.1995986083115532</v>
+        <v>0.2201886075150976</v>
       </c>
       <c r="J13">
-        <v>0.1995986083115532</v>
+        <v>0.2201886075150976</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.192699843146681</v>
+        <v>9.684515333333332</v>
       </c>
       <c r="N13">
-        <v>9.192699843146681</v>
+        <v>29.053546</v>
       </c>
       <c r="O13">
-        <v>0.2290313040133489</v>
+        <v>0.2321120549759609</v>
       </c>
       <c r="P13">
-        <v>0.2290313040133489</v>
+        <v>0.2321120549759609</v>
       </c>
       <c r="Q13">
-        <v>47.2795927052356</v>
+        <v>57.84687875750866</v>
       </c>
       <c r="R13">
-        <v>47.2795927052356</v>
+        <v>520.6219088175779</v>
       </c>
       <c r="S13">
-        <v>0.04571432954084469</v>
+        <v>0.05110843017262462</v>
       </c>
       <c r="T13">
-        <v>0.04571432954084469</v>
+        <v>0.05110843017262462</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.65603954205781</v>
+        <v>7.798031999999999</v>
       </c>
       <c r="H14">
-        <v>7.65603954205781</v>
+        <v>23.394096</v>
       </c>
       <c r="I14">
-        <v>0.2971194141007664</v>
+        <v>0.2874602628735535</v>
       </c>
       <c r="J14">
-        <v>0.2971194141007664</v>
+        <v>0.2874602628735535</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.9155439384167</v>
+        <v>13.61877133333333</v>
       </c>
       <c r="N14">
-        <v>12.9155439384167</v>
+        <v>40.856314</v>
       </c>
       <c r="O14">
-        <v>0.3217840156570073</v>
+        <v>0.3264056993691278</v>
       </c>
       <c r="P14">
-        <v>0.3217840156570073</v>
+        <v>0.3264056993691277</v>
       </c>
       <c r="Q14">
-        <v>98.88191509970332</v>
+        <v>106.199614658016</v>
       </c>
       <c r="R14">
-        <v>98.88191509970332</v>
+        <v>955.796531922144</v>
       </c>
       <c r="S14">
-        <v>0.09560827819900185</v>
+        <v>0.09382866814407556</v>
       </c>
       <c r="T14">
-        <v>0.09560827819900185</v>
+        <v>0.09382866814407555</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.65603954205781</v>
+        <v>7.798031999999999</v>
       </c>
       <c r="H15">
-        <v>7.65603954205781</v>
+        <v>23.394096</v>
       </c>
       <c r="I15">
-        <v>0.2971194141007664</v>
+        <v>0.2874602628735535</v>
       </c>
       <c r="J15">
-        <v>0.2971194141007664</v>
+        <v>0.2874602628735535</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.9119714371485</v>
+        <v>10.92748633333333</v>
       </c>
       <c r="N15">
-        <v>10.9119714371485</v>
+        <v>32.782459</v>
       </c>
       <c r="O15">
-        <v>0.2718660557017667</v>
+        <v>0.2619027613928843</v>
       </c>
       <c r="P15">
-        <v>0.2718660557017667</v>
+        <v>0.2619027613928842</v>
       </c>
       <c r="Q15">
-        <v>83.5424848046143</v>
+        <v>85.212888106896</v>
       </c>
       <c r="R15">
-        <v>83.5424848046143</v>
+        <v>766.915992962064</v>
       </c>
       <c r="S15">
-        <v>0.08077668318399524</v>
+        <v>0.07528663663730807</v>
       </c>
       <c r="T15">
-        <v>0.08077668318399524</v>
+        <v>0.07528663663730806</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.65603954205781</v>
+        <v>7.798031999999999</v>
       </c>
       <c r="H16">
-        <v>7.65603954205781</v>
+        <v>23.394096</v>
       </c>
       <c r="I16">
-        <v>0.2971194141007664</v>
+        <v>0.2874602628735535</v>
       </c>
       <c r="J16">
-        <v>0.2971194141007664</v>
+        <v>0.2874602628735535</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.11709213649094</v>
+        <v>7.492675333333334</v>
       </c>
       <c r="N16">
-        <v>7.11709213649094</v>
+        <v>22.478026</v>
       </c>
       <c r="O16">
-        <v>0.1773186246278771</v>
+        <v>0.1795794842620271</v>
       </c>
       <c r="P16">
-        <v>0.1773186246278771</v>
+        <v>0.1795794842620271</v>
       </c>
       <c r="Q16">
-        <v>54.48873882144333</v>
+        <v>58.42812201494399</v>
       </c>
       <c r="R16">
-        <v>54.48873882144333</v>
+        <v>525.8530981344959</v>
       </c>
       <c r="S16">
-        <v>0.05268480585858856</v>
+        <v>0.05162196575265948</v>
       </c>
       <c r="T16">
-        <v>0.05268480585858856</v>
+        <v>0.05162196575265946</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.65603954205781</v>
+        <v>7.798031999999999</v>
       </c>
       <c r="H17">
-        <v>7.65603954205781</v>
+        <v>23.394096</v>
       </c>
       <c r="I17">
-        <v>0.2971194141007664</v>
+        <v>0.2874602628735535</v>
       </c>
       <c r="J17">
-        <v>0.2971194141007664</v>
+        <v>0.2874602628735535</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.192699843146681</v>
+        <v>9.684515333333332</v>
       </c>
       <c r="N17">
-        <v>9.192699843146681</v>
+        <v>29.053546</v>
       </c>
       <c r="O17">
-        <v>0.2290313040133489</v>
+        <v>0.2321120549759609</v>
       </c>
       <c r="P17">
-        <v>0.2290313040133489</v>
+        <v>0.2321120549759609</v>
       </c>
       <c r="Q17">
-        <v>70.37967349739961</v>
+        <v>75.52016047382398</v>
       </c>
       <c r="R17">
-        <v>70.37967349739961</v>
+        <v>679.6814442644159</v>
       </c>
       <c r="S17">
-        <v>0.06804964685918072</v>
+        <v>0.06672299233951044</v>
       </c>
       <c r="T17">
-        <v>0.06804964685918072</v>
+        <v>0.06672299233951043</v>
       </c>
     </row>
   </sheetData>
